--- a/Code/Results/Cases/Case_1_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_103/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.765487334488884</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11.75660175112883</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.878951511247463</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>103.0054582113301</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.87327750068255</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.95368807342108</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.20530214749979</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>7.690488708080738</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>11.32814289093433</v>
+      </c>
+      <c r="E3">
+        <v>8.89917957184821</v>
+      </c>
+      <c r="F3">
+        <v>101.1150965606002</v>
+      </c>
+      <c r="G3">
+        <v>3.894336807167423</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>11.99135131473485</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>17.93039231733595</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>7.645832371061139</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>11.06590332516433</v>
+      </c>
+      <c r="E4">
+        <v>8.912329868752733</v>
+      </c>
+      <c r="F4">
+        <v>100.0024174626748</v>
+      </c>
+      <c r="G4">
+        <v>3.907715721773446</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>12.01859962734049</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>17.76180298315366</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>7.628005955137633</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10.95938315877442</v>
+      </c>
+      <c r="E5">
+        <v>8.91787276168902</v>
+      </c>
+      <c r="F5">
+        <v>99.56123390223529</v>
+      </c>
+      <c r="G5">
+        <v>3.913283607086129</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>12.03072345441723</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.69323820308988</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>7.625068927627218</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10.94172052140556</v>
+      </c>
+      <c r="E6">
+        <v>8.918804283473722</v>
+      </c>
+      <c r="F6">
+        <v>99.48871963836251</v>
+      </c>
+      <c r="G6">
+        <v>3.914215236388956</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>12.03279772889781</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.681863828119</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>7.645590426591721</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>11.06446517589874</v>
+      </c>
+      <c r="E7">
+        <v>8.912403876380409</v>
+      </c>
+      <c r="F7">
+        <v>99.99641772988193</v>
+      </c>
+      <c r="G7">
+        <v>3.907790339069916</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>12.01875902558661</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>17.76087762816193</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>7.739351513268095</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>11.6087725338513</v>
+      </c>
+      <c r="E8">
+        <v>8.885774847716673</v>
+      </c>
+      <c r="F8">
+        <v>102.3438037413041</v>
+      </c>
+      <c r="G8">
+        <v>3.880447606568924</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>11.96580828853406</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.11052099476146</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>7.9333151054759</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>12.67757651562441</v>
+      </c>
+      <c r="E9">
+        <v>8.839330970509296</v>
+      </c>
+      <c r="F9">
+        <v>107.3200992523934</v>
+      </c>
+      <c r="G9">
+        <v>3.830236872778485</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>11.89548345287692</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>18.7941399855402</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>8.080666255167932</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>13.45785940607566</v>
+      </c>
+      <c r="E10">
+        <v>8.808706801499619</v>
+      </c>
+      <c r="F10">
+        <v>111.1935867584794</v>
+      </c>
+      <c r="G10">
+        <v>3.795201303064419</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>11.86541701899684</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>19.29036450727469</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>8.148469166187692</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>13.81087117281805</v>
+      </c>
+      <c r="E11">
+        <v>8.79553075140017</v>
+      </c>
+      <c r="F11">
+        <v>113.0011798464053</v>
+      </c>
+      <c r="G11">
+        <v>3.779611430381309</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>11.85670710076022</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>19.51383106981899</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>8.174231662406594</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>13.94421895196482</v>
+      </c>
+      <c r="E12">
+        <v>8.790649694714766</v>
+      </c>
+      <c r="F12">
+        <v>113.6921060659541</v>
+      </c>
+      <c r="G12">
+        <v>3.773753119031872</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11.85414808105492</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>19.5980488597737</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>8.168679758780554</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>13.91551540669077</v>
+      </c>
+      <c r="E13">
+        <v>8.791696096820413</v>
+      </c>
+      <c r="F13">
+        <v>113.5430180887392</v>
+      </c>
+      <c r="G13">
+        <v>3.775012880324017</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>11.85466591784921</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>19.57993023154873</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>8.150587055475969</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>13.82184861310304</v>
+      </c>
+      <c r="E14">
+        <v>8.795127011460851</v>
+      </c>
+      <c r="F14">
+        <v>113.0578943870239</v>
+      </c>
+      <c r="G14">
+        <v>3.779128586002168</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>11.85648160409882</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>19.52076825226977</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>8.139515373066335</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>13.76443082841913</v>
+      </c>
+      <c r="E15">
+        <v>8.797242663093103</v>
+      </c>
+      <c r="F15">
+        <v>112.7615768633466</v>
+      </c>
+      <c r="G15">
+        <v>3.781655315872266</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>11.85769080505478</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>19.48447494387066</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>8.076248655077107</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>13.43474538834989</v>
+      </c>
+      <c r="E16">
+        <v>8.809583066587404</v>
+      </c>
+      <c r="F16">
+        <v>111.0763613356734</v>
+      </c>
+      <c r="G16">
+        <v>3.79622673877788</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>11.86608828105907</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>19.27570805562911</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>8.037617191288184</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>13.23195429878465</v>
+      </c>
+      <c r="E17">
+        <v>8.81734676224303</v>
+      </c>
+      <c r="F17">
+        <v>110.0540987116494</v>
+      </c>
+      <c r="G17">
+        <v>3.805251669648479</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>11.87252933148751</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>19.14699881872643</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>8.015471503472558</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>13.11513320482479</v>
+      </c>
+      <c r="E18">
+        <v>8.821883307186649</v>
+      </c>
+      <c r="F18">
+        <v>109.4704097135213</v>
+      </c>
+      <c r="G18">
+        <v>3.810475635701503</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>11.87670002217751</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>19.07275961144358</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>8.00798681698603</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>13.07555035712464</v>
+      </c>
+      <c r="E19">
+        <v>8.823431515702708</v>
+      </c>
+      <c r="F19">
+        <v>109.2735236661556</v>
+      </c>
+      <c r="G19">
+        <v>3.812250199540795</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>11.87819144590207</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>19.04759001474567</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>8.041722081219504</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>13.2535609199986</v>
+      </c>
+      <c r="E20">
+        <v>8.816512949130161</v>
+      </c>
+      <c r="F20">
+        <v>110.1624773687732</v>
+      </c>
+      <c r="G20">
+        <v>3.804287561808265</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>11.87179526973062</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>19.16072234870299</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>8.155899150235026</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>13.84937008912025</v>
+      </c>
+      <c r="E21">
+        <v>8.794116326781024</v>
+      </c>
+      <c r="F21">
+        <v>113.200213152695</v>
+      </c>
+      <c r="G21">
+        <v>3.777918516165793</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>11.8559280228061</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>19.53815713259455</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>8.23101661654699</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>14.236831853346</v>
+      </c>
+      <c r="E22">
+        <v>8.780110823745463</v>
+      </c>
+      <c r="F22">
+        <v>115.2230116359963</v>
+      </c>
+      <c r="G22">
+        <v>3.76094594731902</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>11.84987959517523</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>19.78244317294337</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>8.19088749503514</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>14.03022493303272</v>
+      </c>
+      <c r="E23">
+        <v>8.787528026733895</v>
+      </c>
+      <c r="F23">
+        <v>114.1400031918834</v>
+      </c>
+      <c r="G23">
+        <v>3.769982331917046</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>11.85270360273267</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>19.65230661566007</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>8.039866059139541</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>13.24379329067753</v>
+      </c>
+      <c r="E24">
+        <v>8.816889688358188</v>
+      </c>
+      <c r="F24">
+        <v>110.1134668363375</v>
+      </c>
+      <c r="G24">
+        <v>3.804723324300414</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>11.87212568430401</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>19.15451869034861</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7.879895846024574</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>12.38894960809941</v>
+      </c>
+      <c r="E25">
+        <v>8.851279470481083</v>
+      </c>
+      <c r="F25">
+        <v>105.9350065783924</v>
+      </c>
+      <c r="G25">
+        <v>3.843477439267171</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>11.91080383898378</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>18.60992361498236</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
